--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3220.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3220.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.379350814248314</v>
+        <v>1.59333348274231</v>
       </c>
       <c r="B1">
-        <v>3.397790716352694</v>
+        <v>1.742540240287781</v>
       </c>
       <c r="C1">
-        <v>5.24267000196652</v>
+        <v>2.043889045715332</v>
       </c>
       <c r="D1">
-        <v>2.184225332441787</v>
+        <v>2.42566704750061</v>
       </c>
       <c r="E1">
-        <v>1.252449004286665</v>
+        <v>1.623193025588989</v>
       </c>
     </row>
   </sheetData>
